--- a/static/commands.xlsx
+++ b/static/commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug-r/geocoug-r.github.io/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\OneDrive\GitHub\geocoug-r\geocoug-r.github.io\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{65CCB0AC-7B11-4B06-83EF-5F2F71FF6375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BA6DD55-E7FA-40D9-8E00-CFAA9D92528A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2025" windowWidth="21585" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows-commands" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>Command</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>Upgrade all packages</t>
+  </si>
+  <si>
+    <t>xdg-open .</t>
+  </si>
+  <si>
+    <t>Open default file manager in current directory</t>
+  </si>
+  <si>
+    <t>caja .</t>
+  </si>
+  <si>
+    <t>Open Caja in current directory</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,6 +1477,22 @@
       </c>
       <c r="B16" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F497BE-5585-47EF-AFDF-C1F0AB891E92}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/static/commands.xlsx
+++ b/static/commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\OneDrive\GitHub\geocoug-r\geocoug-r.github.io\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug-r/geocoug-r.github.io/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A178EDD1-4F8E-46E7-90B4-2411DEF4933B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21825" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows-commands" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>Command</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Open Caja in current directory</t>
+  </si>
+  <si>
+    <t>cp [source] [destination]</t>
+  </si>
+  <si>
+    <t>Copy file</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C41E56C-0970-4193-9E23-AEA5720E5D34}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1343,11 +1351,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1493,6 +1499,14 @@
       </c>
       <c r="B18" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1519,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/commands.xlsx
+++ b/static/commands.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug-r/geocoug-r.github.io/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A178EDD1-4F8E-46E7-90B4-2411DEF4933B}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{43F864A2-9B0F-4BF8-9F9D-A592588599DF}"/>
   <bookViews>
-    <workbookView xWindow="-21825" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="765" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows-commands" sheetId="3" r:id="rId1"/>
     <sheet name="linux-filesystem" sheetId="2" r:id="rId2"/>
     <sheet name="linux-commands" sheetId="1" r:id="rId3"/>
     <sheet name="linux-packages" sheetId="4" r:id="rId4"/>
+    <sheet name="psql-commands" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>Command</t>
   </si>
@@ -305,13 +306,124 @@
   </si>
   <si>
     <t>Copy file</t>
+  </si>
+  <si>
+    <t>sudo -s postgres psql</t>
+  </si>
+  <si>
+    <t>Connect to PostgreSQL as admin</t>
+  </si>
+  <si>
+    <t>postgres=# \l</t>
+  </si>
+  <si>
+    <t>List all databases</t>
+  </si>
+  <si>
+    <t>postgres=# \c postgres</t>
+  </si>
+  <si>
+    <t>Connect to the database named postgres</t>
+  </si>
+  <si>
+    <t>postgres=# \q</t>
+  </si>
+  <si>
+    <t>Disconnect</t>
+  </si>
+  <si>
+    <t>psql -d mydb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psql -U john mydb </t>
+  </si>
+  <si>
+    <t>psql -h localhost -p 5432 mydb</t>
+  </si>
+  <si>
+    <t>psql -U admin -h 192.168.1.5 -p 2506 -d mydb</t>
+  </si>
+  <si>
+    <t>psql -W mydb</t>
+  </si>
+  <si>
+    <t>psql -c '\c postgres' -c '\dt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psql -c "\l+" -H postgres &gt; database.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">psql -l </t>
+  </si>
+  <si>
+    <t>psql mydb -f file.sql</t>
+  </si>
+  <si>
+    <t>psql -V</t>
+  </si>
+  <si>
+    <t>Connecting to database</t>
+  </si>
+  <si>
+    <t>Connecting as a specific user</t>
+  </si>
+  <si>
+    <t>Connecting to a host/port</t>
+  </si>
+  <si>
+    <t>Connect remote PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force password </t>
+  </si>
+  <si>
+    <t>Execute a SQL query or command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate HTML report </t>
+  </si>
+  <si>
+    <t>Execute commands from a file</t>
+  </si>
+  <si>
+    <t>Print the psql version</t>
+  </si>
+  <si>
+    <t>psql \dt</t>
+  </si>
+  <si>
+    <t>Show all tables in a database</t>
+  </si>
+  <si>
+    <t>psql \df &lt;schema&gt;</t>
+  </si>
+  <si>
+    <t>List functions in schema</t>
+  </si>
+  <si>
+    <t>psql \du</t>
+  </si>
+  <si>
+    <t>Show current user permission</t>
+  </si>
+  <si>
+    <t>psql \d &lt;table&gt;</t>
+  </si>
+  <si>
+    <t>psql \d+ &lt;table&gt;</t>
+  </si>
+  <si>
+    <t>Describe table</t>
+  </si>
+  <si>
+    <t>Describe table with details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +557,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="33">
@@ -788,8 +905,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1147,13 +1267,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C41E56C-0970-4193-9E23-AEA5720E5D34}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1185,7 +1305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1201,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1225,7 +1345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1233,7 +1353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1241,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1249,7 +1369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1257,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1265,7 +1385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1273,7 +1393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1281,7 +1401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1302,9 +1422,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1355,9 +1475,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1389,7 +1509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1429,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1437,7 +1557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1445,7 +1565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1453,7 +1573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1461,7 +1581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1469,7 +1589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1477,7 +1597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1485,7 +1605,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1493,7 +1613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1501,7 +1621,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1522,9 +1642,9 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1548,7 +1668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1556,7 +1676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1564,7 +1684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1572,7 +1692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1580,7 +1700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1591,4 +1711,180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3233449-2225-413A-A91B-58445B258C15}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/static/commands.xlsx
+++ b/static/commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug-r/geocoug-r.github.io/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{43F864A2-9B0F-4BF8-9F9D-A592588599DF}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C9956911-12CE-4667-B877-A1F11C93E4C3}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="765" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18870" yWindow="7260" windowWidth="9930" windowHeight="8340" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows-commands" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>Command</t>
   </si>
@@ -417,6 +417,69 @@
   </si>
   <si>
     <t>Describe table with details</t>
+  </si>
+  <si>
+    <t>touch &lt;file&gt;.&lt;ext&gt;</t>
+  </si>
+  <si>
+    <t>Create file</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>Make directory</t>
+  </si>
+  <si>
+    <t>mv &lt;source&gt; &lt;destination&gt;</t>
+  </si>
+  <si>
+    <t>Move file</t>
+  </si>
+  <si>
+    <t>copy &lt;source&gt; &lt;destination&gt;</t>
+  </si>
+  <si>
+    <t>find &lt;directory&gt; -type f -name "*.txt"</t>
+  </si>
+  <si>
+    <t>Find files with .py extension</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>search for content in file(s)</t>
+  </si>
+  <si>
+    <t>grep -n -I &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>search for content in files, list line number, ignore case</t>
+  </si>
+  <si>
+    <t>find &lt;directory&gt; -type f -name "*.txt" | grep "sometext"</t>
+  </si>
+  <si>
+    <t>Search for ".txt" files that contain "sometext" in them</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>remove file</t>
+  </si>
+  <si>
+    <t>rm -d</t>
+  </si>
+  <si>
+    <t>rm -r</t>
+  </si>
+  <si>
+    <t>remove directory and files</t>
+  </si>
+  <si>
+    <t>remove empty directory</t>
   </si>
 </sst>
 </file>
@@ -1471,9 +1534,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1627,6 +1692,94 @@
       </c>
       <c r="B19" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1792,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1717,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3233449-2225-413A-A91B-58445B258C15}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/static/commands.xlsx
+++ b/static/commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54d68f46f5829c2c/GitHub/geocoug-r/geocoug-r.github.io/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C9956911-12CE-4667-B877-A1F11C93E4C3}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{728482ED-A84C-4A6B-AB21-E423113B22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{830359E6-32DA-4F37-8CAF-9207349B45A3}"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="7260" windowWidth="9930" windowHeight="8340" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows-commands" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
   <si>
     <t>Command</t>
   </si>
@@ -332,36 +332,6 @@
     <t>Disconnect</t>
   </si>
   <si>
-    <t>psql -d mydb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psql -U john mydb </t>
-  </si>
-  <si>
-    <t>psql -h localhost -p 5432 mydb</t>
-  </si>
-  <si>
-    <t>psql -U admin -h 192.168.1.5 -p 2506 -d mydb</t>
-  </si>
-  <si>
-    <t>psql -W mydb</t>
-  </si>
-  <si>
-    <t>psql -c '\c postgres' -c '\dt'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psql -c "\l+" -H postgres &gt; database.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">psql -l </t>
-  </si>
-  <si>
-    <t>psql mydb -f file.sql</t>
-  </si>
-  <si>
-    <t>psql -V</t>
-  </si>
-  <si>
     <t>Connecting to database</t>
   </si>
   <si>
@@ -389,30 +359,15 @@
     <t>Print the psql version</t>
   </si>
   <si>
-    <t>psql \dt</t>
-  </si>
-  <si>
     <t>Show all tables in a database</t>
   </si>
   <si>
-    <t>psql \df &lt;schema&gt;</t>
-  </si>
-  <si>
     <t>List functions in schema</t>
   </si>
   <si>
-    <t>psql \du</t>
-  </si>
-  <si>
     <t>Show current user permission</t>
   </si>
   <si>
-    <t>psql \d &lt;table&gt;</t>
-  </si>
-  <si>
-    <t>psql \d+ &lt;table&gt;</t>
-  </si>
-  <si>
     <t>Describe table</t>
   </si>
   <si>
@@ -480,6 +435,90 @@
   </si>
   <si>
     <t>remove empty directory</t>
+  </si>
+  <si>
+    <t>postgres=# -d mydb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres=# -U john mydb </t>
+  </si>
+  <si>
+    <t>postgres=# -h localhost -p 5432 mydb</t>
+  </si>
+  <si>
+    <t>postgres=# -U admin -h 192.168.1.5 -p 2506 -d mydb</t>
+  </si>
+  <si>
+    <t>postgres=# -W mydb</t>
+  </si>
+  <si>
+    <t>postgres=# -c '\c postgres' -c '\dt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres=# -c "\l+" -H postgres &gt; database.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres=# -l </t>
+  </si>
+  <si>
+    <t>postgres=# \dt</t>
+  </si>
+  <si>
+    <t>postgres=# mydb -f file.sql</t>
+  </si>
+  <si>
+    <t>postgres=# -V</t>
+  </si>
+  <si>
+    <t>postgres=# \df &lt;schema&gt;</t>
+  </si>
+  <si>
+    <t>postgres=# \du</t>
+  </si>
+  <si>
+    <t>postgres=# \d &lt;table&gt;</t>
+  </si>
+  <si>
+    <t>postgres=# \d+ &lt;table&gt;</t>
+  </si>
+  <si>
+    <t>postgres=# \di</t>
+  </si>
+  <si>
+    <t>List indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List roles </t>
+  </si>
+  <si>
+    <t>List sequences</t>
+  </si>
+  <si>
+    <t>postgres=# \ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import/export table </t>
+  </si>
+  <si>
+    <t>Print string</t>
+  </si>
+  <si>
+    <t>Execute file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export all results to file </t>
+  </si>
+  <si>
+    <t>postgres=# \copy …</t>
+  </si>
+  <si>
+    <t>postgres=# \echo [string]</t>
+  </si>
+  <si>
+    <t>postgres=# \i [file]</t>
+  </si>
+  <si>
+    <t>postgres=# \o [file]</t>
   </si>
 </sst>
 </file>
@@ -1536,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1696,31 +1735,31 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -1728,58 +1767,58 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +1907,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3233449-2225-413A-A91B-58445B258C15}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1918,63 +1960,63 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>97</v>
@@ -1982,58 +2024,114 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
